--- a/storage/kartu-piutang-2022.xlsx
+++ b/storage/kartu-piutang-2022.xlsx
@@ -23,7 +23,7 @@
     <t>Data Per Aug 2022</t>
   </si>
   <si>
-    <t>No ID</t>
+    <t>No ID :</t>
   </si>
   <si>
     <t>Nama :</t>

--- a/storage/kartu-piutang-2022.xlsx
+++ b/storage/kartu-piutang-2022.xlsx
@@ -20,7 +20,7 @@
     <t>KARTU PIUTANG</t>
   </si>
   <si>
-    <t>Data Per Aug 2022</t>
+    <t>Data Per Sep 2022</t>
   </si>
   <si>
     <t>No ID :</t>

--- a/storage/kartu-piutang-2022.xlsx
+++ b/storage/kartu-piutang-2022.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
   <si>
     <t>KARTU PIUTANG</t>
   </si>
@@ -56,7 +56,7 @@
     <t>No</t>
   </si>
   <si>
-    <t>Taanggal</t>
+    <t>Tanggal</t>
   </si>
   <si>
     <t>Pokok</t>
@@ -69,6 +69,99 @@
   </si>
   <si>
     <t>Saldo</t>
+  </si>
+  <si>
+    <t>Asep Sukarsa</t>
+  </si>
+  <si>
+    <t>2021-07-26</t>
+  </si>
+  <si>
+    <t>lancar</t>
+  </si>
+  <si>
+    <t>2023-08-05</t>
+  </si>
+  <si>
+    <t>2021-09-06</t>
+  </si>
+  <si>
+    <t>3,125,000</t>
+  </si>
+  <si>
+    <t>375,000</t>
+  </si>
+  <si>
+    <t>3,500,000</t>
+  </si>
+  <si>
+    <t>80,500,000</t>
+  </si>
+  <si>
+    <t>2021-10-07</t>
+  </si>
+  <si>
+    <t>77,000,000</t>
+  </si>
+  <si>
+    <t>2021-11-21</t>
+  </si>
+  <si>
+    <t>73,500,000</t>
+  </si>
+  <si>
+    <t>2021-12-16</t>
+  </si>
+  <si>
+    <t>70,000,000</t>
+  </si>
+  <si>
+    <t>2022-01-13</t>
+  </si>
+  <si>
+    <t>66,500,000</t>
+  </si>
+  <si>
+    <t>2022-02-15</t>
+  </si>
+  <si>
+    <t>63,000,000</t>
+  </si>
+  <si>
+    <t>2022-03-17</t>
+  </si>
+  <si>
+    <t>59,500,000</t>
+  </si>
+  <si>
+    <t>2022-04-24</t>
+  </si>
+  <si>
+    <t>56,000,000</t>
+  </si>
+  <si>
+    <t>2022-05-31</t>
+  </si>
+  <si>
+    <t>52,500,000</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>49,000,000</t>
+  </si>
+  <si>
+    <t>2022-07-15</t>
+  </si>
+  <si>
+    <t>45,500,000</t>
+  </si>
+  <si>
+    <t>2022-08-30</t>
+  </si>
+  <si>
+    <t>42,000,000</t>
   </si>
 </sst>
 </file>
@@ -416,7 +509,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A2" sqref="A2:F2"/>
@@ -451,40 +544,70 @@
       <c r="B5" t="s">
         <v>2</v>
       </c>
+      <c r="C5">
+        <v>5080</v>
+      </c>
       <c r="E5" t="s">
         <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
         <v>3</v>
       </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
       <c r="E6" t="s">
         <v>8</v>
+      </c>
+      <c r="F6">
+        <v>9000000</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" t="s">
         <v>4</v>
       </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
       <c r="E7" t="s">
         <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" t="s">
         <v>5</v>
       </c>
+      <c r="C8">
+        <v>3500000</v>
+      </c>
       <c r="E8" t="s">
         <v>10</v>
+      </c>
+      <c r="F8">
+        <v>75000000</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" t="s">
         <v>6</v>
       </c>
+      <c r="C9">
+        <v>84000000</v>
+      </c>
       <c r="E9" t="s">
         <v>11</v>
+      </c>
+      <c r="F9">
+        <v>9000000</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -505,6 +628,246 @@
       </c>
       <c r="F11" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/storage/kartu-piutang-2022.xlsx
+++ b/storage/kartu-piutang-2022.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
   <si>
     <t>KARTU PIUTANG</t>
   </si>
@@ -71,97 +71,109 @@
     <t>Saldo</t>
   </si>
   <si>
-    <t>Asep Sukarsa</t>
-  </si>
-  <si>
-    <t>2021-07-26</t>
-  </si>
-  <si>
-    <t>lancar</t>
-  </si>
-  <si>
-    <t>2023-08-05</t>
-  </si>
-  <si>
-    <t>2021-09-06</t>
-  </si>
-  <si>
-    <t>3,125,000</t>
-  </si>
-  <si>
-    <t>375,000</t>
-  </si>
-  <si>
-    <t>3,500,000</t>
-  </si>
-  <si>
-    <t>80,500,000</t>
-  </si>
-  <si>
-    <t>2021-10-07</t>
-  </si>
-  <si>
-    <t>77,000,000</t>
-  </si>
-  <si>
-    <t>2021-11-21</t>
-  </si>
-  <si>
-    <t>73,500,000</t>
-  </si>
-  <si>
-    <t>2021-12-16</t>
-  </si>
-  <si>
-    <t>70,000,000</t>
-  </si>
-  <si>
-    <t>2022-01-13</t>
-  </si>
-  <si>
-    <t>66,500,000</t>
-  </si>
-  <si>
-    <t>2022-02-15</t>
-  </si>
-  <si>
-    <t>63,000,000</t>
-  </si>
-  <si>
-    <t>2022-03-17</t>
-  </si>
-  <si>
-    <t>59,500,000</t>
-  </si>
-  <si>
-    <t>2022-04-24</t>
-  </si>
-  <si>
-    <t>56,000,000</t>
-  </si>
-  <si>
-    <t>2022-05-31</t>
-  </si>
-  <si>
-    <t>52,500,000</t>
-  </si>
-  <si>
-    <t>2022-06-30</t>
-  </si>
-  <si>
-    <t>49,000,000</t>
-  </si>
-  <si>
-    <t>2022-07-15</t>
-  </si>
-  <si>
-    <t>45,500,000</t>
-  </si>
-  <si>
-    <t>2022-08-30</t>
-  </si>
-  <si>
-    <t>42,000,000</t>
+    <t>KUNOMO HS</t>
+  </si>
+  <si>
+    <t>2008-08-20</t>
+  </si>
+  <si>
+    <t>macet</t>
+  </si>
+  <si>
+    <t>2010-10-05</t>
+  </si>
+  <si>
+    <t>2008-10-07</t>
+  </si>
+  <si>
+    <t>417,000</t>
+  </si>
+  <si>
+    <t>50,000</t>
+  </si>
+  <si>
+    <t>467,000</t>
+  </si>
+  <si>
+    <t>10,733,000</t>
+  </si>
+  <si>
+    <t>2009-11-10</t>
+  </si>
+  <si>
+    <t>100,000</t>
+  </si>
+  <si>
+    <t>10,633,000</t>
+  </si>
+  <si>
+    <t>2010-06-03</t>
+  </si>
+  <si>
+    <t>200,000</t>
+  </si>
+  <si>
+    <t>10,433,000</t>
+  </si>
+  <si>
+    <t>2010-07-26</t>
+  </si>
+  <si>
+    <t>150,000</t>
+  </si>
+  <si>
+    <t>10,283,000</t>
+  </si>
+  <si>
+    <t>2011-03-14</t>
+  </si>
+  <si>
+    <t>10,183,000</t>
+  </si>
+  <si>
+    <t>2011-04-05</t>
+  </si>
+  <si>
+    <t>1,500,000</t>
+  </si>
+  <si>
+    <t>500,000</t>
+  </si>
+  <si>
+    <t>2,000,000</t>
+  </si>
+  <si>
+    <t>8,183,000</t>
+  </si>
+  <si>
+    <t>2012-06-25</t>
+  </si>
+  <si>
+    <t>800,000</t>
+  </si>
+  <si>
+    <t>1,000,000</t>
+  </si>
+  <si>
+    <t>7,183,000</t>
+  </si>
+  <si>
+    <t>2013-05-27</t>
+  </si>
+  <si>
+    <t>2,800,000</t>
+  </si>
+  <si>
+    <t>3,000,000</t>
+  </si>
+  <si>
+    <t>4,183,000</t>
+  </si>
+  <si>
+    <t>2014-05-26</t>
+  </si>
+  <si>
+    <t>3,983,000</t>
   </si>
 </sst>
 </file>
@@ -509,7 +521,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A2" sqref="A2:F2"/>
@@ -545,7 +557,7 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>5080</v>
+        <v>3974</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -565,7 +577,7 @@
         <v>8</v>
       </c>
       <c r="F6">
-        <v>9000000</v>
+        <v>1200000</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -587,13 +599,13 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>3500000</v>
+        <v>467000</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8">
-        <v>75000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -601,13 +613,13 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>84000000</v>
+        <v>11200000</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
       </c>
       <c r="F9">
-        <v>9000000</v>
+        <v>1200000</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -658,16 +670,16 @@
         <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -675,19 +687,19 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -695,19 +707,19 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
         <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -715,19 +727,19 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
         <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -735,19 +747,19 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -755,19 +767,19 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -775,19 +787,19 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -795,79 +807,19 @@
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" t="s">
-        <v>24</v>
+        <v>31</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21">
-        <v>10</v>
-      </c>
-      <c r="B21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22">
-        <v>11</v>
-      </c>
-      <c r="B22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23">
-        <v>12</v>
-      </c>
-      <c r="B23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
